--- a/Packages/cn.etetet.wow/Excel/NumericTypeConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/NumericTypeConfig.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28695" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="NumeriTypeProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -100,7 +87,7 @@
     <t>NeedSaveDB</t>
   </si>
   <si>
-    <t>NoticeClientType</t>
+    <t>NoticeType</t>
   </si>
   <si>
     <t>MaxNumericType</t>
@@ -154,12 +141,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -183,6 +170,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -190,26 +214,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,6 +274,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -229,104 +290,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -349,19 +336,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,31 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,85 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,37 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +527,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -562,7 +588,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,38 +596,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,15 +619,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -643,148 +630,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -804,52 +791,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1152,7 +1139,7 @@
   <dimension ref="C1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35"/>

--- a/Packages/cn.etetet.wow/Excel/NumericTypeConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/NumericTypeConfig.xlsx
@@ -143,9 +143,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -170,13 +170,50 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -184,7 +221,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -200,37 +297,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,83 +320,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -336,187 +336,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,15 +545,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -565,21 +556,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,6 +578,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -616,162 +627,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,7 +1139,7 @@
   <dimension ref="C1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C1" sqref="C1:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35"/>

--- a/Packages/cn.etetet.wow/Excel/NumericTypeConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/NumericTypeConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>NoNotice = 0,
 Self = 1,
@@ -60,6 +60,9 @@
     <t>名字</t>
   </si>
   <si>
+    <t>说明</t>
+  </si>
+  <si>
     <t>是否生成二级属性</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Desc</t>
+  </si>
+  <si>
     <t>GenSecondAttr</t>
   </si>
   <si>
@@ -136,6 +142,24 @@
   </si>
   <si>
     <t>AI</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>出生X坐标</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>出生Y坐标</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>出生Z坐标</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:J18"/>
+  <dimension ref="C1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35"/>
@@ -1148,34 +1172,34 @@
     <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.6283185840708" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.2566371681416" style="2" customWidth="1"/>
-    <col min="5" max="6" width="17.2654867256637" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.0265486725664" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.8407079646018" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.3185840707965" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.5398230088496" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="5" max="7" width="17.2654867256637" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.0265486725664" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.8407079646018" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.3185840707965" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.5398230088496" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49.5" spans="7:10">
-      <c r="G1" s="3" t="s">
+    <row r="1" ht="49.5" spans="8:11">
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="5:10">
+    <row r="2" spans="5:11">
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>5</v>
@@ -1189,8 +1213,11 @@
       <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="3:10">
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11">
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1209,244 +1236,320 @@
       <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="3:10">
+      <c r="K3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="J4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="J5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:7">
+        <v>25</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:8">
       <c r="C6" s="1">
         <v>1000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:8">
+    <row r="7" s="1" customFormat="1" spans="3:9">
       <c r="C7" s="1">
         <v>1001</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
       <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>1002</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:7">
+    <row r="8" s="1" customFormat="1" spans="3:8">
       <c r="C8" s="1">
         <v>1002</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:8">
+    <row r="9" s="1" customFormat="1" spans="3:9">
       <c r="C9" s="1">
         <v>1003</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
       <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>1004</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:7">
+    <row r="10" s="1" customFormat="1" spans="3:8">
       <c r="C10" s="1">
         <v>1004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:7">
+    <row r="11" s="1" customFormat="1" spans="3:8">
       <c r="C11" s="1">
         <v>1005</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:7">
+    <row r="12" s="1" customFormat="1" spans="3:8">
       <c r="C12" s="1">
         <v>1006</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="3:7">
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:8">
       <c r="C13" s="1">
         <v>1007</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:7">
+    <row r="14" s="1" customFormat="1" spans="3:8">
       <c r="C14" s="1">
         <v>1008</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:7">
+    <row r="15" s="1" customFormat="1" spans="3:8">
       <c r="C15" s="1">
         <v>1009</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="1">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
       <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
+    <row r="16" s="1" customFormat="1" spans="3:8">
+      <c r="C16" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="3:8">
+      <c r="C17" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="3:8">
+      <c r="C18" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Packages/cn.etetet.wow/Excel/NumericTypeConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/NumericTypeConfig.xlsx
@@ -167,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -194,6 +194,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -202,83 +231,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,6 +299,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -307,41 +332,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -360,187 +360,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,6 +551,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,33 +593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -622,17 +604,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,151 +622,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,7 +1163,7 @@
   <dimension ref="C1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35"/>
@@ -1311,7 +1311,6 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>1</v>
       </c>
@@ -1329,7 +1328,6 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>0</v>
       </c>
@@ -1350,7 +1348,6 @@
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>1</v>
       </c>
@@ -1368,7 +1365,6 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>0</v>
       </c>
@@ -1389,7 +1385,6 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>1</v>
       </c>
@@ -1407,7 +1402,6 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>1</v>
       </c>
@@ -1425,7 +1419,6 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>1</v>
       </c>
@@ -1443,7 +1436,6 @@
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>1</v>
       </c>
@@ -1461,7 +1453,6 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1"/>
       <c r="F14" s="1">
         <v>1</v>
       </c>
@@ -1479,7 +1470,6 @@
       <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1"/>
       <c r="F15" s="1">
         <v>0</v>
       </c>
